--- a/docs/tables/Various.xlsx
+++ b/docs/tables/Various.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ETest\docs\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9C4CF6-D408-4AB9-B175-544E0F8B589A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E099F367-2E0F-4450-B8BB-32E878A52775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{EE4263A2-8FC9-4695-B2B5-F7B8177F316B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{EE4263A2-8FC9-4695-B2B5-F7B8177F316B}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="15" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="125">
   <si>
     <t>Description</t>
   </si>
@@ -396,6 +396,12 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fraction of total historical catches (taken by this fleet). </t>
   </si>
 </sst>
 </file>
@@ -766,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8A4713-AE3F-47AB-A996-17263352EFC5}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1000,287 +1006,298 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
         <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
         <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
         <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
         <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
         <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
         <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
         <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
         <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
         <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
         <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
         <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
         <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
         <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
         <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
         <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
         <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
         <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
         <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
         <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
         <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
         <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
         <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
         <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
         <v>91</v>
       </c>
-      <c r="B46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1293,7 +1310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97162EB3-8C36-45A6-A7F5-E11890F2B3BC}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
